--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +758,9 @@
       <c r="D22" t="n">
         <v>1.279999971389771</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -770,7 +772,9 @@
       <c r="C23" t="n">
         <v>1.279999971389771</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -780,9 +784,22 @@
       <c r="B24" t="n">
         <v>1.279999971389771</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1164,20 @@
         <v>1.349060535430908</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.361330628395081</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.352403521537781</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.341371655464172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.360000014305115</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.350000023841858</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.289999961853027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.289999961853027</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.289999961853027</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.370000004768372</v>
+        <v>1.259999990463257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.370000004768372</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="E9" t="n">
-        <v>1.389999985694885</v>
+        <v>1.279999971389771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.279999971389771</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.370000004768372</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="D10" t="n">
-        <v>1.389999985694885</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="E10" t="n">
-        <v>1.370000004768372</v>
+        <v>1.279999971389771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.370000004768372</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="C11" t="n">
-        <v>1.389999985694885</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="D11" t="n">
-        <v>1.370000004768372</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370000004768372</v>
+        <v>1.269999980926514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.389999985694885</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="C12" t="n">
-        <v>1.370000004768372</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="D12" t="n">
-        <v>1.370000004768372</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="E12" t="n">
-        <v>1.370000004768372</v>
+        <v>1.299999952316284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.370000004768372</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="C13" t="n">
-        <v>1.370000004768372</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="D13" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.320000052452087</v>
-      </c>
+        <v>1.299999952316284</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.370000004768372</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="C14" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>1.299999952316284</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.350000023841858</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.289999961853027</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.289999961853027</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.289999961853027</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.279999971389771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.259999990463257</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.259999990463257</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.279999971389771</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.259999990463257</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.279999971389771</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.259999990463257</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>1.299999952316284</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.361684083938599</v>
+        <v>1.350380182266235</v>
       </c>
       <c r="C2" t="n">
-        <v>1.366335034370422</v>
+        <v>1.362370729446411</v>
       </c>
       <c r="D2" t="n">
-        <v>1.376707196235657</v>
+        <v>1.35083794593811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.421748876571655</v>
+        <v>1.369911789894104</v>
       </c>
       <c r="C3" t="n">
-        <v>1.390505909919739</v>
+        <v>1.319523811340332</v>
       </c>
       <c r="D3" t="n">
-        <v>1.406550168991089</v>
+        <v>1.3528653383255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.423729538917542</v>
+        <v>1.373155951499939</v>
       </c>
       <c r="C4" t="n">
-        <v>1.387723803520203</v>
+        <v>1.328249931335449</v>
       </c>
       <c r="D4" t="n">
-        <v>1.408698916435242</v>
+        <v>1.3534996509552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.418250918388367</v>
+        <v>1.371949434280396</v>
       </c>
       <c r="C5" t="n">
-        <v>1.388955950737</v>
+        <v>1.334487438201904</v>
       </c>
       <c r="D5" t="n">
-        <v>1.408698916435242</v>
+        <v>1.359663605690002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.423666954040527</v>
+        <v>1.376912832260132</v>
       </c>
       <c r="C6" t="n">
-        <v>1.387880206108093</v>
+        <v>1.354990243911743</v>
       </c>
       <c r="D6" t="n">
-        <v>1.413689255714417</v>
+        <v>1.362244844436646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.405019402503967</v>
+        <v>1.338990211486816</v>
       </c>
       <c r="C7" t="n">
-        <v>1.387723803520203</v>
+        <v>1.327418088912964</v>
       </c>
       <c r="D7" t="n">
-        <v>1.408698916435242</v>
+        <v>1.369943380355835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.404885411262512</v>
+        <v>1.359038233757019</v>
       </c>
       <c r="C8" t="n">
-        <v>1.389492392539978</v>
+        <v>1.335475206375122</v>
       </c>
       <c r="D8" t="n">
-        <v>1.409936904907227</v>
+        <v>1.35363495349884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.421954393386841</v>
+        <v>1.36127495765686</v>
       </c>
       <c r="C9" t="n">
-        <v>1.385079503059387</v>
+        <v>1.338209390640259</v>
       </c>
       <c r="D9" t="n">
-        <v>1.40784215927124</v>
+        <v>1.354324460029602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.42583954334259</v>
+        <v>1.358712196350098</v>
       </c>
       <c r="C10" t="n">
-        <v>1.385700583457947</v>
+        <v>1.338456153869629</v>
       </c>
       <c r="D10" t="n">
-        <v>1.424349904060364</v>
+        <v>1.358355402946472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.421507358551025</v>
+        <v>1.341176986694336</v>
       </c>
       <c r="C11" t="n">
-        <v>1.38926088809967</v>
+        <v>1.332952737808228</v>
       </c>
       <c r="D11" t="n">
-        <v>1.415776968002319</v>
+        <v>1.353680610656738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.416179299354553</v>
+        <v>1.35823130607605</v>
       </c>
       <c r="C12" t="n">
-        <v>1.369826912879944</v>
+        <v>1.303770303726196</v>
       </c>
       <c r="D12" t="n">
-        <v>1.398576498031616</v>
+        <v>1.356940269470215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.415818095207214</v>
+        <v>1.358349800109863</v>
       </c>
       <c r="C13" t="n">
-        <v>1.362419724464417</v>
+        <v>1.300451278686523</v>
       </c>
       <c r="D13" t="n">
-        <v>1.396040439605713</v>
+        <v>1.357069611549377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.41544783115387</v>
+        <v>1.360641956329346</v>
       </c>
       <c r="C14" t="n">
-        <v>1.355691313743591</v>
+        <v>1.300696849822998</v>
       </c>
       <c r="D14" t="n">
-        <v>1.389387130737305</v>
+        <v>1.356865406036377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.407744646072388</v>
+        <v>1.357378244400024</v>
       </c>
       <c r="C15" t="n">
-        <v>1.356961131095886</v>
+        <v>1.300055861473083</v>
       </c>
       <c r="D15" t="n">
-        <v>1.388141274452209</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.380617260932922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.352208733558655</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.318446755409241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.377971887588501</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.363546013832092</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.298693537712097</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.384545922279358</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.364333987236023</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.301954746246338</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.359992027282715</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.345476508140564</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.310797810554504</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.360473394393921</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.345224022865295</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.293634176254272</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.361523270606995</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.34700071811676</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.302539110183716</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.357330799102783</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.341184735298157</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.32178270816803</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.35474956035614</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.351728796958923</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.362242579460144</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.364274382591248</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.352403521537781</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.349060535430908</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.361330628395081</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.352403521537781</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.341371655464172</v>
+        <v>1.357086062431335</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.370000004768372</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.289999961853027</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.289999961853027</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.289999961853027</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.279999971389771</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.259999990463257</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.289999961853027</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.259999990463257</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.279999971389771</v>
+        <v>1.370000004768372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.259999990463257</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.279999971389771</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="E10" t="n">
-        <v>1.279999971389771</v>
+        <v>1.389999985694885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.259999990463257</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.279999971389771</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="D11" t="n">
-        <v>1.279999971389771</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="E11" t="n">
-        <v>1.269999980926514</v>
+        <v>1.370000004768372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.279999971389771</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="C12" t="n">
-        <v>1.279999971389771</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="D12" t="n">
-        <v>1.269999980926514</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="E12" t="n">
-        <v>1.299999952316284</v>
+        <v>1.370000004768372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.279999971389771</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C13" t="n">
-        <v>1.269999980926514</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="D13" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.370000004768372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.269999980926514</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="C14" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.320000052452087</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.289999961853027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.289999961853027</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.289999961853027</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.279999971389771</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.259999990463257</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.259999990463257</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.279999971389771</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.259999990463257</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.279999971389771</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.259999990463257</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.269999980926514</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.299999952316284</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.299999952316284</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.350380182266235</v>
+        <v>1.376108050346375</v>
       </c>
       <c r="C2" t="n">
-        <v>1.362370729446411</v>
+        <v>1.392217516899109</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35083794593811</v>
+        <v>1.3869788646698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.369911789894104</v>
+        <v>1.361550092697144</v>
       </c>
       <c r="C3" t="n">
-        <v>1.319523811340332</v>
+        <v>1.374249577522278</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3528653383255</v>
+        <v>1.392433762550354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.373155951499939</v>
+        <v>1.440730094909668</v>
       </c>
       <c r="C4" t="n">
-        <v>1.328249931335449</v>
+        <v>1.417050361633301</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3534996509552</v>
+        <v>1.429344058036804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.371949434280396</v>
+        <v>1.432016491889954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.334487438201904</v>
+        <v>1.405458569526672</v>
       </c>
       <c r="D5" t="n">
-        <v>1.359663605690002</v>
+        <v>1.430770039558411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.376912832260132</v>
+        <v>1.432016491889954</v>
       </c>
       <c r="C6" t="n">
-        <v>1.354990243911743</v>
+        <v>1.405626773834229</v>
       </c>
       <c r="D6" t="n">
-        <v>1.362244844436646</v>
+        <v>1.43035900592804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.338990211486816</v>
+        <v>1.432016491889954</v>
       </c>
       <c r="C7" t="n">
-        <v>1.327418088912964</v>
+        <v>1.405209898948669</v>
       </c>
       <c r="D7" t="n">
-        <v>1.369943380355835</v>
+        <v>1.430770039558411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.359038233757019</v>
+        <v>1.410926699638367</v>
       </c>
       <c r="C8" t="n">
-        <v>1.335475206375122</v>
+        <v>1.405209898948669</v>
       </c>
       <c r="D8" t="n">
-        <v>1.35363495349884</v>
+        <v>1.430963516235352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.36127495765686</v>
+        <v>1.405328512191772</v>
       </c>
       <c r="C9" t="n">
-        <v>1.338209390640259</v>
+        <v>1.396508574485779</v>
       </c>
       <c r="D9" t="n">
-        <v>1.354324460029602</v>
+        <v>1.430666923522949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.358712196350098</v>
+        <v>1.424830079078674</v>
       </c>
       <c r="C10" t="n">
-        <v>1.338456153869629</v>
+        <v>1.394723892211914</v>
       </c>
       <c r="D10" t="n">
-        <v>1.358355402946472</v>
+        <v>1.430738806724548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.341176986694336</v>
+        <v>1.409049034118652</v>
       </c>
       <c r="C11" t="n">
-        <v>1.332952737808228</v>
+        <v>1.390870809555054</v>
       </c>
       <c r="D11" t="n">
-        <v>1.353680610656738</v>
+        <v>1.430062532424927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.35823130607605</v>
+        <v>1.40667986869812</v>
       </c>
       <c r="C12" t="n">
-        <v>1.303770303726196</v>
+        <v>1.394332766532898</v>
       </c>
       <c r="D12" t="n">
-        <v>1.356940269470215</v>
+        <v>1.409506678581238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.358349800109863</v>
+        <v>1.404141902923584</v>
       </c>
       <c r="C13" t="n">
-        <v>1.300451278686523</v>
+        <v>1.392436385154724</v>
       </c>
       <c r="D13" t="n">
-        <v>1.357069611549377</v>
+        <v>1.406390190124512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.360641956329346</v>
+        <v>1.403115510940552</v>
       </c>
       <c r="C14" t="n">
-        <v>1.300696849822998</v>
+        <v>1.395898461341858</v>
       </c>
       <c r="D14" t="n">
-        <v>1.356865406036377</v>
+        <v>1.398850917816162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4161696434021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.40073823928833</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.401270031929016</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.417204618453979</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.404044270515442</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.401446342468262</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.400713920593262</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.403023242950439</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.405160427093506</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.390750765800476</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.394262552261353</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.380746603012085</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.391438603401184</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.395758748054504</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.377059459686279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.353344559669495</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.370107889175415</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.354158520698547</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.352505564689636</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.358495354652405</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.363700985908508</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.352340698242188</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.37442934513092</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.371768593788147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.367486596107483</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.364935755729675</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.384978771209717</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.376251578330994</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.38980495929718</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.383255958557129</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.35440194606781</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.364979863166809</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.389292597770691</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.353987455368042</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.360546231269836</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.385234713554382</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.353080868721008</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.364212989807129</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.383547902107239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.357378244400024</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.300055861473083</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.357086062431335</v>
+      <c r="B28" t="n">
+        <v>1.351006984710693</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.356866598129272</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.380212783813477</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C2" t="n">
-        <v>1.360000014305115</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C12" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C13" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C14" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.320000052452087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C15" t="n">
-        <v>1.370000004768372</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.320000052452087</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.350000023841858</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C16" t="n">
-        <v>1.320000052452087</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.350000023841858</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.320000052452087</v>
       </c>
       <c r="C17" t="n">
-        <v>1.350000023841858</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C18" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C19" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C20" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C21" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.259999990463257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C22" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.259999990463257</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.279999971389771</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C23" t="n">
-        <v>1.259999990463257</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.279999971389771</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.259999990463257</v>
       </c>
       <c r="C24" t="n">
-        <v>1.279999971389771</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C25" t="n">
-        <v>1.279999971389771</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.299999952316284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C26" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.269999980926514</v>
       </c>
       <c r="C27" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.299999952316284</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.376108050346375</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.392217516899109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3869788646698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.361550092697144</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.374249577522278</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.392433762550354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.440730094909668</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.417050361633301</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.429344058036804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.432016491889954</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.405458569526672</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.430770039558411</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.432016491889954</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.405626773834229</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.43035900592804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.432016491889954</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.405209898948669</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.430770039558411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.410926699638367</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.405209898948669</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.430963516235352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.405328512191772</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.396508574485779</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.430666923522949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.424830079078674</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.394723892211914</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.430738806724548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.409049034118652</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.390870809555054</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.430062532424927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.40667986869812</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.394332766532898</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.409506678581238</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.404141902923584</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.392436385154724</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.406390190124512</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.403115510940552</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.395898461341858</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.398850917816162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.4161696434021</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.40073823928833</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.401270031929016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.417204618453979</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.404044270515442</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.401446342468262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.400713920593262</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.403023242950439</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.405160427093506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.390750765800476</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.394262552261353</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.380746603012085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.391438603401184</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="n">
-        <v>1.395758748054504</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.377059459686279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.353344559669495</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.370107889175415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.354158520698547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.352505564689636</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.358495354652405</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.363700985908508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.352340698242188</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.37442934513092</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.371768593788147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.367486596107483</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364935755729675</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.384978771209717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.376251578330994</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1.38980495929718</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.383255958557129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.35440194606781</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.364979863166809</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.389292597770691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.353987455368042</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.360546231269836</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.385234713554382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.353080868721008</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.364212989807129</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.383547902107239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.351006984710693</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.356866598129272</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.380212783813477</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
